--- a/foodCheckingFlask/FoodCategory.xlsx
+++ b/foodCheckingFlask/FoodCategory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hypark/PycharmProjects/foodChecking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A3AF5-0CAE-C44A-A980-7401C4D55D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C1CE8-6F9B-514C-A626-DDD493696EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="2640" windowWidth="28300" windowHeight="17440" xr2:uid="{85A34C26-7FA6-8441-B963-B570A4FC05EC}"/>
+    <workbookView xWindow="24500" yWindow="1620" windowWidth="13800" windowHeight="17440" xr2:uid="{85A34C26-7FA6-8441-B963-B570A4FC05EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="18"/>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>180</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>365</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>365</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>265</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>265</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>265</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1177,11 +1177,17 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>730</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>18</v>
       </c>
+      <c r="D16">
+        <v>730</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" t="s">
@@ -1203,11 +1209,17 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
+      <c r="D19">
+        <v>365</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
         <v>22</v>
       </c>
+      <c r="D20">
+        <v>365</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
@@ -1216,31 +1228,49 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
+      <c r="D21">
+        <v>365</v>
+      </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" t="s">
         <v>25</v>
       </c>
+      <c r="D22">
+        <v>365</v>
+      </c>
     </row>
     <row r="23" spans="2:4">
       <c r="C23" t="s">
         <v>26</v>
       </c>
+      <c r="D23">
+        <v>365</v>
+      </c>
     </row>
     <row r="24" spans="2:4">
       <c r="C24" t="s">
         <v>27</v>
       </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
       <c r="C25" t="s">
         <v>28</v>
       </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" t="s">
         <v>29</v>
       </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
@@ -1250,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1258,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1266,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1274,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -1282,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -1290,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1298,7 +1328,7 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -1306,7 +1336,7 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -1314,7 +1344,7 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -1322,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -1330,7 +1360,7 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -1338,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -1346,7 +1376,7 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -1356,21 +1386,33 @@
       <c r="C40" t="s">
         <v>45</v>
       </c>
+      <c r="D40">
+        <v>730</v>
+      </c>
     </row>
     <row r="41" spans="2:4">
       <c r="C41" t="s">
         <v>46</v>
       </c>
+      <c r="D41">
+        <v>365</v>
+      </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" t="s">
         <v>47</v>
       </c>
+      <c r="D42">
+        <v>365</v>
+      </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" t="s">
         <v>48</v>
       </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="2:4">
       <c r="C44" t="s">
@@ -1384,6 +1426,9 @@
       <c r="C45" t="s">
         <v>50</v>
       </c>
+      <c r="D45">
+        <v>730</v>
+      </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
@@ -1392,21 +1437,33 @@
       <c r="C46" t="s">
         <v>52</v>
       </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" t="s">
         <v>53</v>
       </c>
+      <c r="D47">
+        <v>180</v>
+      </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
         <v>54</v>
       </c>
+      <c r="D48">
+        <v>365</v>
+      </c>
     </row>
     <row r="49" spans="2:4">
       <c r="C49" t="s">
         <v>55</v>
       </c>
+      <c r="D49">
+        <v>180</v>
+      </c>
     </row>
     <row r="50" spans="2:4">
       <c r="C50" t="s">
@@ -1422,16 +1479,25 @@
       <c r="C52" t="s">
         <v>58</v>
       </c>
+      <c r="D52">
+        <v>365</v>
+      </c>
     </row>
     <row r="53" spans="2:4">
       <c r="C53" t="s">
         <v>59</v>
       </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="2:4">
       <c r="C54" t="s">
         <v>60</v>
       </c>
+      <c r="D54">
+        <v>365</v>
+      </c>
     </row>
     <row r="55" spans="2:4">
       <c r="C55" t="s">
@@ -1442,31 +1508,49 @@
       <c r="C56" t="s">
         <v>62</v>
       </c>
+      <c r="D56">
+        <v>365</v>
+      </c>
     </row>
     <row r="57" spans="2:4">
       <c r="C57" t="s">
         <v>63</v>
       </c>
+      <c r="D57">
+        <v>180</v>
+      </c>
     </row>
     <row r="58" spans="2:4">
       <c r="C58" t="s">
         <v>64</v>
       </c>
+      <c r="D58">
+        <v>365</v>
+      </c>
     </row>
     <row r="59" spans="2:4">
       <c r="C59" t="s">
         <v>65</v>
       </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="2:4">
       <c r="C60" t="s">
         <v>66</v>
       </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="2:4">
       <c r="C61" t="s">
         <v>67</v>
       </c>
+      <c r="D61">
+        <v>180</v>
+      </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
@@ -1475,11 +1559,17 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
+      <c r="D62">
+        <v>365</v>
+      </c>
     </row>
     <row r="63" spans="2:4">
       <c r="C63" t="s">
         <v>70</v>
       </c>
+      <c r="D63">
+        <v>365</v>
+      </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
@@ -1512,6 +1602,9 @@
       <c r="C67" t="s">
         <v>75</v>
       </c>
+      <c r="D67">
+        <v>365</v>
+      </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" t="s">
@@ -1525,46 +1618,73 @@
       <c r="C69" t="s">
         <v>77</v>
       </c>
+      <c r="D69">
+        <v>730</v>
+      </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>78</v>
       </c>
+      <c r="D70">
+        <v>90</v>
+      </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
         <v>79</v>
       </c>
+      <c r="D71">
+        <v>365</v>
+      </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" t="s">
         <v>80</v>
       </c>
+      <c r="D72">
+        <v>540</v>
+      </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" t="s">
         <v>81</v>
       </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>82</v>
       </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>83</v>
       </c>
+      <c r="D75">
+        <v>180</v>
+      </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76" t="s">
         <v>84</v>
       </c>
+      <c r="D76">
+        <v>180</v>
+      </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>85</v>
       </c>
+      <c r="D77">
+        <v>365</v>
+      </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" t="s">
@@ -1575,36 +1695,57 @@
       <c r="C79" t="s">
         <v>87</v>
       </c>
+      <c r="D79">
+        <v>1095</v>
+      </c>
     </row>
     <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>88</v>
       </c>
+      <c r="D80">
+        <v>2555</v>
+      </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
         <v>89</v>
       </c>
+      <c r="D81">
+        <v>365</v>
+      </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" t="s">
         <v>90</v>
       </c>
+      <c r="D82">
+        <v>1095</v>
+      </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" t="s">
         <v>91</v>
       </c>
+      <c r="D83">
+        <v>1825</v>
+      </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" t="s">
         <v>92</v>
       </c>
+      <c r="D84">
+        <v>730</v>
+      </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" t="s">
         <v>93</v>
       </c>
+      <c r="D85">
+        <v>60</v>
+      </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
@@ -1634,69 +1775,105 @@
       <c r="C89" t="s">
         <v>97</v>
       </c>
+      <c r="D89">
+        <v>210</v>
+      </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" t="s">
         <v>98</v>
       </c>
+      <c r="D90">
+        <v>730</v>
+      </c>
     </row>
     <row r="91" spans="3:4">
       <c r="C91" t="s">
         <v>99</v>
       </c>
       <c r="D91">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" t="s">
         <v>100</v>
       </c>
+      <c r="D92">
+        <v>120</v>
+      </c>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" t="s">
         <v>101</v>
       </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" t="s">
         <v>102</v>
       </c>
+      <c r="D94">
+        <v>365</v>
+      </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" t="s">
         <v>103</v>
       </c>
+      <c r="D95">
+        <v>365</v>
+      </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" t="s">
         <v>104</v>
       </c>
+      <c r="D96">
+        <v>365</v>
+      </c>
     </row>
     <row r="97" spans="2:4">
       <c r="C97" t="s">
         <v>105</v>
       </c>
+      <c r="D97">
+        <v>365</v>
+      </c>
     </row>
     <row r="98" spans="2:4">
       <c r="C98" t="s">
         <v>106</v>
       </c>
+      <c r="D98">
+        <v>365</v>
+      </c>
     </row>
     <row r="99" spans="2:4">
       <c r="C99" t="s">
         <v>107</v>
       </c>
+      <c r="D99">
+        <v>365</v>
+      </c>
     </row>
     <row r="100" spans="2:4">
       <c r="C100" t="s">
         <v>108</v>
       </c>
+      <c r="D100">
+        <v>1095</v>
+      </c>
     </row>
     <row r="101" spans="2:4">
       <c r="C101" t="s">
         <v>109</v>
       </c>
+      <c r="D101">
+        <v>365</v>
+      </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
@@ -1705,10 +1882,16 @@
       <c r="C102" t="s">
         <v>111</v>
       </c>
+      <c r="D102">
+        <v>365</v>
+      </c>
     </row>
     <row r="103" spans="2:4">
       <c r="C103" t="s">
         <v>112</v>
+      </c>
+      <c r="D103">
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="2:4">

--- a/foodCheckingFlask/FoodCategory.xlsx
+++ b/foodCheckingFlask/FoodCategory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hypark/PycharmProjects/foodChecking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hypark/PycharmProjects/foodCheckingFlask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C1CE8-6F9B-514C-A626-DDD493696EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3994AE-9822-244D-B9B9-A3555DF31163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24500" yWindow="1620" windowWidth="13800" windowHeight="17440" xr2:uid="{85A34C26-7FA6-8441-B963-B570A4FC05EC}"/>
   </bookViews>
@@ -1043,9 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF212B-1E7F-FF46-9C09-D357A72736C1}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="18"/>
   <sheetData>
@@ -1469,11 +1467,17 @@
       <c r="C50" t="s">
         <v>56</v>
       </c>
+      <c r="D50">
+        <v>1825</v>
+      </c>
     </row>
     <row r="51" spans="2:4">
       <c r="C51" t="s">
         <v>57</v>
       </c>
+      <c r="D51">
+        <v>1825</v>
+      </c>
     </row>
     <row r="52" spans="2:4">
       <c r="C52" t="s">
@@ -1503,6 +1507,9 @@
       <c r="C55" t="s">
         <v>61</v>
       </c>
+      <c r="D55">
+        <v>365</v>
+      </c>
     </row>
     <row r="56" spans="2:4">
       <c r="C56" t="s">
@@ -1690,6 +1697,9 @@
       <c r="C78" t="s">
         <v>86</v>
       </c>
+      <c r="D78">
+        <v>365</v>
+      </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" t="s">
@@ -1946,199 +1956,313 @@
       <c r="C110" t="s">
         <v>119</v>
       </c>
+      <c r="D110">
+        <v>365</v>
+      </c>
     </row>
     <row r="111" spans="2:4">
       <c r="C111" t="s">
         <v>120</v>
       </c>
+      <c r="D111">
+        <v>730</v>
+      </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="113" spans="2:3">
+      <c r="D112">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
       <c r="C113" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="114" spans="2:3">
+      <c r="D113">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
       <c r="B114" t="s">
         <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="115" spans="2:3">
+      <c r="D114">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
       <c r="C115" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="2:3">
+      <c r="D115">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
       <c r="C116" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="117" spans="2:3">
+      <c r="D116">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
       <c r="C117" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="2:3">
+      <c r="D117">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
       <c r="C118" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="119" spans="2:3">
+      <c r="D118">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
       <c r="C119" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="120" spans="2:3">
+      <c r="D119">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
       <c r="C120" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="121" spans="2:3">
+      <c r="D120">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
       <c r="C121" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="122" spans="2:3">
+      <c r="D121">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
       <c r="C122" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="123" spans="2:3">
+      <c r="D122">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
       <c r="C123" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="124" spans="2:3">
+      <c r="D123">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
       <c r="C124" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="125" spans="2:3">
+      <c r="D124">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
       <c r="B125" t="s">
         <v>135</v>
       </c>
       <c r="C125" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="126" spans="2:3">
+      <c r="D125">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
       <c r="C126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="2:3">
+      <c r="D126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
       <c r="C127" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="128" spans="2:3">
+      <c r="D127">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
       <c r="C128" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="129" spans="2:3">
+      <c r="D128">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
       <c r="C129" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="130" spans="2:3">
+      <c r="D129">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
       <c r="C130" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="131" spans="2:3">
+      <c r="D130">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
       <c r="C131" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="132" spans="2:3">
+      <c r="D131">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
       <c r="C132" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="133" spans="2:3">
+      <c r="D132">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
       <c r="C133" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="134" spans="2:3">
+      <c r="D133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
       <c r="C134" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="135" spans="2:3">
+      <c r="D134">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
       <c r="C135" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="136" spans="2:3">
+      <c r="D135">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
       <c r="C136" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
+      <c r="D136">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
       <c r="C137" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="2:3">
+      <c r="D137">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
       <c r="C138" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="139" spans="2:3">
+      <c r="D138">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
       <c r="C139" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="140" spans="2:3">
+      <c r="D139">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
       <c r="B140" t="s">
         <v>151</v>
       </c>
       <c r="C140" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="141" spans="2:3">
+      <c r="D140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
       <c r="C141" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="142" spans="2:3">
+      <c r="D141">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
       <c r="C142" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="143" spans="2:3">
+      <c r="D142">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
       <c r="C143" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="144" spans="2:3">
+      <c r="D143">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
       <c r="C144" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="145" spans="3:3">
+      <c r="D144">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
       <c r="C145" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="146" spans="3:3">
+      <c r="D145">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
       <c r="C146" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="147" spans="3:3">
+      <c r="D146">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
       <c r="C147" t="s">
         <v>159</v>
+      </c>
+      <c r="D147">
+        <v>3650</v>
       </c>
     </row>
   </sheetData>
